--- a/strategy_wide/cluster_strategy_wide_2_meaning.xlsx
+++ b/strategy_wide/cluster_strategy_wide_2_meaning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/m224659_hiroshima-u_ac_jp/Documents/Documents/relation_strategy/strategy_wide/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93BA0F06-3EBC-4B7C-98E2-AF69505D84AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{93BA0F06-3EBC-4B7C-98E2-AF69505D84AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{702A81B0-9B8E-45F5-A173-746BE4F14066}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="29835" yWindow="3525" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cluster_strategy_wide_2" sheetId="1" r:id="rId1"/>
@@ -759,7 +759,583 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="96">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="5" tint="-0.25098422193060094"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFFF0000"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="5" tint="-0.25098422193060094"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFFF0000"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="5" tint="-0.25098422193060094"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFFF0000"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="5" tint="-0.25098422193060094"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFFF0000"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="5" tint="-0.25098422193060094"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFFF0000"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="5" tint="-0.25098422193060094"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color rgb="FFFF0000"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="4" tint="0.40000610370189521"/>
+          </stop>
+          <stop position="1">
+            <color theme="9" tint="0.40000610370189521"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -1355,9 +1931,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1395,7 +1971,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1501,7 +2077,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1643,7 +2219,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1654,7 +2230,7 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3942,171 +4518,96 @@
   </autoFilter>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="D2:H35">
-    <cfRule type="containsText" dxfId="47" priority="36" operator="containsText" text="x_x_x">
+    <cfRule type="containsText" dxfId="47" priority="37" operator="containsText" text="x_x_x">
       <formula>NOT(ISERROR(SEARCH("x_x_x",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="37" operator="containsText" text="x_x_R">
+    <cfRule type="containsText" dxfId="46" priority="38" operator="containsText" text="x_x_R">
       <formula>NOT(ISERROR(SEARCH("x_x_R",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="38" operator="containsText" text="x_S_x">
+    <cfRule type="containsText" dxfId="45" priority="39" operator="containsText" text="x_S_x">
       <formula>NOT(ISERROR(SEARCH("x_S_x",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="40" operator="containsText" text="x_S_R">
+    <cfRule type="containsText" dxfId="44" priority="41" operator="containsText" text="x_S_R">
       <formula>NOT(ISERROR(SEARCH("x_S_R",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="41" operator="containsText" text="F_x_x">
+    <cfRule type="containsText" dxfId="43" priority="42" operator="containsText" text="F_x_x">
       <formula>NOT(ISERROR(SEARCH("F_x_x",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="42" operator="containsText" text="F_x_R">
+    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="F_x_R">
       <formula>NOT(ISERROR(SEARCH("F_x_R",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="F_S_x">
+    <cfRule type="containsText" dxfId="41" priority="44" operator="containsText" text="F_S_x">
       <formula>NOT(ISERROR(SEARCH("F_S_x",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="F_S_R">
+    <cfRule type="containsText" dxfId="40" priority="45" operator="containsText" text="F_S_R">
       <formula>NOT(ISERROR(SEARCH("F_S_R",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFD6007B"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{85A69FB3-2DF1-4F14-B39D-544FA7D5F16A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J2:N35">
-    <cfRule type="containsText" dxfId="39" priority="12" operator="containsText" text="x_x_x">
+    <cfRule type="containsText" dxfId="39" priority="13" operator="containsText" text="x_x_x">
       <formula>NOT(ISERROR(SEARCH("x_x_x",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="13" operator="containsText" text="x_x_R">
+    <cfRule type="containsText" dxfId="38" priority="14" operator="containsText" text="x_x_R">
       <formula>NOT(ISERROR(SEARCH("x_x_R",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="14" operator="containsText" text="x_S_x">
+    <cfRule type="containsText" dxfId="37" priority="15" operator="containsText" text="x_S_x">
       <formula>NOT(ISERROR(SEARCH("x_S_x",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="15" operator="containsText" text="x_S_R">
+    <cfRule type="containsText" dxfId="36" priority="16" operator="containsText" text="x_S_R">
       <formula>NOT(ISERROR(SEARCH("x_S_R",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="16" operator="containsText" text="F_x_x">
+    <cfRule type="containsText" dxfId="35" priority="17" operator="containsText" text="F_x_x">
       <formula>NOT(ISERROR(SEARCH("F_x_x",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="17" operator="containsText" text="F_x_R">
+    <cfRule type="containsText" dxfId="34" priority="18" operator="containsText" text="F_x_R">
       <formula>NOT(ISERROR(SEARCH("F_x_R",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="18" operator="containsText" text="F_S_x">
+    <cfRule type="containsText" dxfId="33" priority="19" operator="containsText" text="F_S_x">
       <formula>NOT(ISERROR(SEARCH("F_S_x",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="19" operator="containsText" text="F_S_R">
+    <cfRule type="containsText" dxfId="32" priority="20" operator="containsText" text="F_S_R">
       <formula>NOT(ISERROR(SEARCH("F_S_R",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFD6007B"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AD6B47B4-1983-4F8C-B738-0E8D029B803E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="P2:T35">
-    <cfRule type="containsText" dxfId="31" priority="4" operator="containsText" text="x_x_x">
+    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="x_x_x">
       <formula>NOT(ISERROR(SEARCH("x_x_x",P2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="5" operator="containsText" text="x_x_R">
+    <cfRule type="containsText" dxfId="30" priority="6" operator="containsText" text="x_x_R">
       <formula>NOT(ISERROR(SEARCH("x_x_R",P2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="6" operator="containsText" text="x_S_x">
+    <cfRule type="containsText" dxfId="29" priority="7" operator="containsText" text="x_S_x">
       <formula>NOT(ISERROR(SEARCH("x_S_x",P2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="x_S_R">
+    <cfRule type="containsText" dxfId="28" priority="8" operator="containsText" text="x_S_R">
       <formula>NOT(ISERROR(SEARCH("x_S_R",P2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="8" operator="containsText" text="F_x_x">
+    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="F_x_x">
       <formula>NOT(ISERROR(SEARCH("F_x_x",P2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="9" operator="containsText" text="F_x_R">
+    <cfRule type="containsText" dxfId="26" priority="10" operator="containsText" text="F_x_R">
       <formula>NOT(ISERROR(SEARCH("F_x_R",P2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="10" operator="containsText" text="F_S_x">
+    <cfRule type="containsText" dxfId="25" priority="11" operator="containsText" text="F_S_x">
       <formula>NOT(ISERROR(SEARCH("F_S_x",P2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="11" operator="containsText" text="F_S_R">
+    <cfRule type="containsText" dxfId="24" priority="12" operator="containsText" text="F_S_R">
       <formula>NOT(ISERROR(SEARCH("F_S_R",P2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1048576">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
+  <conditionalFormatting sqref="I1:I1048576 O1:O1048576 U1:U1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
         <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFD6007B"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E11C8DB9-7CCF-472D-B147-A5556E07DD34}</x14:id>
-        </ext>
-      </extLst>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{85A69FB3-2DF1-4F14-B39D-544FA7D5F16A}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFD6007B"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>I1:I1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AD6B47B4-1983-4F8C-B738-0E8D029B803E}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFD6007B"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>O1:O1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E11C8DB9-7CCF-472D-B147-A5556E07DD34}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FFD6007B"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>U1:U1048576</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6400,28 +6901,28 @@
   </autoFilter>
   <phoneticPr fontId="18"/>
   <conditionalFormatting sqref="D2:H35">
-    <cfRule type="containsText" dxfId="23" priority="20" operator="containsText" text="x_x_x">
+    <cfRule type="containsText" dxfId="95" priority="20" operator="containsText" text="x_x_x">
       <formula>NOT(ISERROR(SEARCH("x_x_x",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="21" operator="containsText" text="x_x_R">
+    <cfRule type="containsText" dxfId="94" priority="21" operator="containsText" text="x_x_R">
       <formula>NOT(ISERROR(SEARCH("x_x_R",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="x_S_x">
+    <cfRule type="containsText" dxfId="93" priority="22" operator="containsText" text="x_S_x">
       <formula>NOT(ISERROR(SEARCH("x_S_x",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="23" operator="containsText" text="x_S_R">
+    <cfRule type="containsText" dxfId="92" priority="23" operator="containsText" text="x_S_R">
       <formula>NOT(ISERROR(SEARCH("x_S_R",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="24" operator="containsText" text="F_x_x">
+    <cfRule type="containsText" dxfId="91" priority="24" operator="containsText" text="F_x_x">
       <formula>NOT(ISERROR(SEARCH("F_x_x",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="25" operator="containsText" text="F_x_R">
+    <cfRule type="containsText" dxfId="90" priority="25" operator="containsText" text="F_x_R">
       <formula>NOT(ISERROR(SEARCH("F_x_R",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="26" operator="containsText" text="F_S_x">
+    <cfRule type="containsText" dxfId="89" priority="26" operator="containsText" text="F_S_x">
       <formula>NOT(ISERROR(SEARCH("F_S_x",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="27" operator="containsText" text="F_S_R">
+    <cfRule type="containsText" dxfId="88" priority="27" operator="containsText" text="F_S_R">
       <formula>NOT(ISERROR(SEARCH("F_S_R",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6440,28 +6941,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:N35">
-    <cfRule type="containsText" dxfId="15" priority="11" operator="containsText" text="x_x_x">
+    <cfRule type="containsText" dxfId="87" priority="11" operator="containsText" text="x_x_x">
       <formula>NOT(ISERROR(SEARCH("x_x_x",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="12" operator="containsText" text="x_x_R">
+    <cfRule type="containsText" dxfId="86" priority="12" operator="containsText" text="x_x_R">
       <formula>NOT(ISERROR(SEARCH("x_x_R",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="x_S_x">
+    <cfRule type="containsText" dxfId="85" priority="13" operator="containsText" text="x_S_x">
       <formula>NOT(ISERROR(SEARCH("x_S_x",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="x_S_R">
+    <cfRule type="containsText" dxfId="84" priority="14" operator="containsText" text="x_S_R">
       <formula>NOT(ISERROR(SEARCH("x_S_R",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="F_x_x">
+    <cfRule type="containsText" dxfId="83" priority="15" operator="containsText" text="F_x_x">
       <formula>NOT(ISERROR(SEARCH("F_x_x",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="16" operator="containsText" text="F_x_R">
+    <cfRule type="containsText" dxfId="82" priority="16" operator="containsText" text="F_x_R">
       <formula>NOT(ISERROR(SEARCH("F_x_R",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="F_S_x">
+    <cfRule type="containsText" dxfId="81" priority="17" operator="containsText" text="F_S_x">
       <formula>NOT(ISERROR(SEARCH("F_S_x",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="18" operator="containsText" text="F_S_R">
+    <cfRule type="containsText" dxfId="80" priority="18" operator="containsText" text="F_S_R">
       <formula>NOT(ISERROR(SEARCH("F_S_R",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6480,28 +6981,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:T35">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="x_x_x">
+    <cfRule type="containsText" dxfId="79" priority="2" operator="containsText" text="x_x_x">
       <formula>NOT(ISERROR(SEARCH("x_x_x",P2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="x_x_R">
+    <cfRule type="containsText" dxfId="78" priority="3" operator="containsText" text="x_x_R">
       <formula>NOT(ISERROR(SEARCH("x_x_R",P2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="x_S_x">
+    <cfRule type="containsText" dxfId="77" priority="4" operator="containsText" text="x_S_x">
       <formula>NOT(ISERROR(SEARCH("x_S_x",P2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="x_S_R">
+    <cfRule type="containsText" dxfId="76" priority="5" operator="containsText" text="x_S_R">
       <formula>NOT(ISERROR(SEARCH("x_S_R",P2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="F_x_x">
+    <cfRule type="containsText" dxfId="75" priority="6" operator="containsText" text="F_x_x">
       <formula>NOT(ISERROR(SEARCH("F_x_x",P2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="F_x_R">
+    <cfRule type="containsText" dxfId="74" priority="7" operator="containsText" text="F_x_R">
       <formula>NOT(ISERROR(SEARCH("F_x_R",P2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="F_S_x">
+    <cfRule type="containsText" dxfId="73" priority="8" operator="containsText" text="F_S_x">
       <formula>NOT(ISERROR(SEARCH("F_S_x",P2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="9" operator="containsText" text="F_S_R">
+    <cfRule type="containsText" dxfId="72" priority="9" operator="containsText" text="F_S_R">
       <formula>NOT(ISERROR(SEARCH("F_S_R",P2)))</formula>
     </cfRule>
   </conditionalFormatting>
